--- a/data_excel/445.xlsx
+++ b/data_excel/445.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>書架上</t>
   </si>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +501,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -645,8 +649,8 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>34</v>
